--- a/03.crawler/01.RockAuto/file/11.kit_collate/crawler_1-vehicle.xlsx
+++ b/03.crawler/01.RockAuto/file/11.kit_collate/crawler_1-vehicle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Kit_JOIN_MPNTCPC</t>
+          <t>[Kit] JOIN_MPNTCPC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Part Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
+          <t>[Kit] Vehicle</t>
         </is>
       </c>
     </row>
@@ -457,11 +452,6 @@
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>1025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2018
 LEXUS GS300 2006
@@ -490,11 +480,6 @@
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>1026</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2024
 LEXUS GS F 2016-2020
@@ -520,7 +505,7 @@
 LEXUS RX350 2007-2022
 LEXUS RX450H 2010-2022
 LEXUS RX450HL 2021-2022
-TOYOTA 4RUNNER 2010-2023
+TOYOTA 4RUNNER 2010-2024
 TOYOTA AVALON 2005-2022
 TOYOTA CAMRY 2007-2024
 TOYOTA FJ CRUISER 2010-2014
@@ -543,11 +528,6 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -563,11 +543,6 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>471</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -582,11 +557,6 @@
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>715F</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>FORD ESCAPE 2005-2008
 FORD FOCUS 2003-2005
@@ -608,11 +578,6 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>717F</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>FORD FOCUS 2006-2007
 MAZDA 3 2004-2007
 MAZDA 5 2006-2007
@@ -627,11 +592,6 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>722F</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
@@ -650,11 +610,6 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BG5053</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
 NISSAN NV2500 2012-2017
@@ -672,11 +627,6 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BG5054</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
 NISSAN NV2500 2012-2017
@@ -693,11 +643,6 @@
         </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>BG5062</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2018
 LEXUS GS300 2006
@@ -727,11 +672,6 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BG5063</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>LEXUS ES350 2007-2018
 LEXUS GS300 2006
 LEXUS GS350 2007-2015
@@ -760,12 +700,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BG5515</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FORD ESCAPE 2005-2023
+          <t>FORD ESCAPE 2005-2024
 FORD FOCUS 2003-2007
 FORD FUSION 2006-2020
 FORD MAVERICK 2022-2024
@@ -792,11 +727,6 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BG5622</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -812,11 +742,6 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BG5623</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -831,11 +756,6 @@
         </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>BG7019</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>FORD FUSION 2006-2009
 MAZDA 3 2004-2009
@@ -852,11 +772,6 @@
         </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>BT5066</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
@@ -875,11 +790,6 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BT5068</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
 NISSAN NV2500 2012-2017
@@ -897,11 +807,6 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BT5069</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
 NISSAN NV2500 2012-2017
@@ -919,11 +824,6 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BT5070</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
 NISSAN NV2500 2012-2017
@@ -940,11 +840,6 @@
         </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>BT5077</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2018
 LEXUS GS300 2006
@@ -957,7 +852,7 @@
 LEXUS RC350 2015-2018
 LEXUS RX350 2007-2015
 LEXUS RX450H 2010-2015
-TOYOTA 4RUNNER 2010-2023
+TOYOTA 4RUNNER 2010-2024
 TOYOTA AVALON 2005-2018
 TOYOTA CAMRY 2007-2016
 TOYOTA FJ CRUISER 2010-2014
@@ -976,11 +871,6 @@
         </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>BT5078</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2018
 LEXUS GS300 2006
@@ -993,7 +883,7 @@
 LEXUS RC350 2015-2018
 LEXUS RX350 2007-2015
 LEXUS RX450H 2010-2015
-TOYOTA 4RUNNER 2010-2023
+TOYOTA 4RUNNER 2010-2024
 TOYOTA AVALON 2005-2018
 TOYOTA CAMRY 2007-2016
 TOYOTA FJ CRUISER 2010-2014
@@ -1012,11 +902,6 @@
         </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>BT5079</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2015
 LEXUS GS300 2006
@@ -1039,11 +924,6 @@
         </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>BT5514</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>FORD C-MAX 2013-2018
 FORD ECOSPORT 2004-2008
@@ -1060,7 +940,7 @@
 HYUNDAI AZERA 2006-2011
 HYUNDAI ENTOURAGE 2007-2010
 HYUNDAI GENESIS 2009-2012
-HYUNDAI GENESIS COUPE 2010-2012
+HYUNDAI GENESIS COUPE 2010-2011
 HYUNDAI SANTA FE 2007-2012
 HYUNDAI SONATA 2006-2010
 HYUNDAI VERACRUZ 2007-2012
@@ -1091,11 +971,6 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BT5618</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -1111,11 +986,6 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BT5619</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -1131,11 +1001,6 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BT5620</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -1151,11 +1016,6 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BT5621</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -1170,11 +1030,6 @@
         </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>BT7015</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>FORD ESCAPE 2005-2008
 FORD FOCUS 2003-2004
@@ -1194,14 +1049,9 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BT7016</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>FORD C-MAX 2013-2018
 FORD ECOSPORT 2018-2022
-FORD ESCAPE 2009-2023
+FORD ESCAPE 2009-2024
 FORD FOCUS 2012-2018
 FORD MAVERICK 2022-2024
 FORD TRANSIT CONNECT 2019-2023
@@ -1220,11 +1070,6 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S1251</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
 NISSAN NV2500 2012-2017
@@ -1241,11 +1086,6 @@
         </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>S1261</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2018
 LEXUS GS300 2006
@@ -1258,7 +1098,7 @@
 LEXUS RC350 2015-2018
 LEXUS RX350 2007-2015
 LEXUS RX450H 2010-2015
-TOYOTA 4RUNNER 2011-2023
+TOYOTA 4RUNNER 2011-2024
 TOYOTA AVALON 2005-2018
 TOYOTA CAMRY 2007-2017
 TOYOTA FJ CRUISER 2010-2014
@@ -1278,11 +1118,6 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S1274</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2006
 NISSAN ARMADA 2005-2006
 NISSAN PATHFINDER 2004
@@ -1298,11 +1133,6 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S1276</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>INFINITI QX56 2004-2006
 NISSAN ARMADA 2005-2006
 NISSAN PATHFINDER 2004
@@ -1317,11 +1147,6 @@
         </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>S1278</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>INFINITI QX56 2007-2010
 NISSAN ARMADA 2007-2015
@@ -1339,11 +1164,6 @@
         </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>S1290</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2018
 LEXUS GS300 2006
@@ -1356,7 +1176,7 @@
 LEXUS RC350 2015-2018
 LEXUS RX350 2007-2015
 LEXUS RX450H 2010-2015
-TOYOTA 4RUNNER 2010-2023
+TOYOTA 4RUNNER 2010-2024
 TOYOTA AVALON 2006-2018
 TOYOTA CAMRY 2007-2016
 TOYOTA FJ CRUISER 2010-2014
@@ -1375,11 +1195,6 @@
         </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>S899</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>FORD ESCAPE 2005-2008
 FORD FOCUS 2003-2004
@@ -1401,11 +1216,6 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S905</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>FORD FOCUS 2006-2007
 MAZDA 3 2004-2007
 MAZDA 5 2006-2007
@@ -1420,11 +1230,6 @@
         </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>S906A</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>FORD ESCAPE 2005-2008
 FORD FOCUS 2003-2004
@@ -1446,11 +1251,6 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S959</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>LEXUS GS450H 2013-2017
 TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
@@ -1467,11 +1267,6 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S960</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
@@ -1487,11 +1282,6 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S961</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
 TOYOTA TACOMA 2005-2015
